--- a/data/data_overview.xlsx
+++ b/data/data_overview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -39,9 +39,6 @@
     <t>10 min Ruhelage dann Rotation um verschiedene Achsen</t>
   </si>
   <si>
-    <t xml:space="preserve">error </t>
-  </si>
-  <si>
     <t>Zeitangabe * 10</t>
   </si>
   <si>
@@ -94,16 +91,64 @@
   </si>
   <si>
     <t xml:space="preserve">30 min Ruhelage </t>
+  </si>
+  <si>
+    <t>20min_sample</t>
+  </si>
+  <si>
+    <t>20 min Ruhelage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetometer skaliert auf örtlichen Maximalwert </t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>linie_dach_imu</t>
+  </si>
+  <si>
+    <t>sample_imu_beuth_0801</t>
+  </si>
+  <si>
+    <t>sample_brueckenmodell</t>
+  </si>
+  <si>
+    <t>sample_dach_imu</t>
+  </si>
+  <si>
+    <t>Bewegung während der ersten 100 Werte</t>
+  </si>
+  <si>
+    <t>drehraten in Z fehlerhaft</t>
+  </si>
+  <si>
+    <t>10 min Ruhelage dann periodische Kippung um Y-Achse</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 min Ruhelage dann 80 m linie </t>
+  </si>
+  <si>
+    <t>5 min Ruhelage dann Rundgang um Beuth Gelände</t>
+  </si>
+  <si>
+    <t>10 min Ruhelage dann kruze Teststrecke auf Beuth Dach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +187,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -151,13 +196,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,9 +248,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +317,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,21 +493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,19 +515,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -486,12 +544,13 @@
         <f>C2*B2</f>
         <v>1255.301004886624</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -502,19 +561,20 @@
         <v>49939</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D11" si="0">C3*B3</f>
+        <f>C3*B3</f>
         <v>677.85890996455942</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>1.0328896930500001E-2</v>
@@ -523,173 +583,293 @@
         <v>351366</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
+        <f>C4*B4</f>
         <v>3629.2231988820631</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="3"/>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.3592910196000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>104017</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5*B5</f>
+        <v>1413.8937398573321</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B6" s="1">
+        <v>1.35103885074E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>180357</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6*B6</f>
+        <v>2436.6931400291419</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
-        <v>1.35103885074E-2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>180357</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>2436.6931400291419</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>1.0313294533999999E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>68644</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
+      <c r="D7" s="3">
+        <f>C7*B7</f>
         <v>707.94578999189594</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.03281585066E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>179588</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>1854.8133298832809</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
-        <v>1.34928826612E-2</v>
+        <v>1.34729293958E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>54875</v>
+        <v>66895</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>740.42193603334999</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
+        <f t="shared" ref="D8:D10" si="0">C8*B8</f>
+        <v>901.27161193204097</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0324814947100001E-2</v>
+        <v>1.3487617454199999E-2</v>
       </c>
       <c r="C9" s="3">
-        <v>1136</v>
+        <v>68125</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>11.7289897799056</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
+        <v>918.84393906737489</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>1.3833271914499999E-2</v>
+        <v>1.36901401304E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>703</v>
+        <v>62926</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
+        <v>861.46575784555034</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.03281585066E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>179588</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11*B11</f>
+        <v>1854.8133298832809</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.34928826612E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>54875</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12*B12</f>
+        <v>740.42193603334999</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.03100610376E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>141570</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13*B13</f>
+        <v>1459.5953410930319</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0324814947100001E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1136</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14*B14</f>
+        <v>11.7289897799056</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.3833271914499999E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>703</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15*B15</f>
         <v>9.7247901558934995</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.3498609049799999E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1179</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16*B16</f>
+        <v>15.9148600697142</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.3498609049799999E-2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1179</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>15.9148600697142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F12">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -697,12 +877,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
